--- a/Development/datasets/Munich2019dataset.xlsx
+++ b/Development/datasets/Munich2019dataset.xlsx
@@ -11,7 +11,7 @@
     <sheet name="S1 Table" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'S1 Table'!$A$1:$H$66</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'S1 Table'!$F$1:$H$66</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,28 +25,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
+    <t xml:space="preserve">age_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cHsp70_low0_high1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGMTmethylation_methylated1_unmethylated0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PFS_months</t>
+  </si>
+  <si>
     <t xml:space="preserve">sex_male0_female1</t>
   </si>
   <si>
-    <t xml:space="preserve">age_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS_months</t>
-  </si>
-  <si>
     <t xml:space="preserve">survived_yes1_no0</t>
   </si>
   <si>
-    <t xml:space="preserve">PFS_months</t>
-  </si>
-  <si>
     <t xml:space="preserve">tumor_progression_yes1_no0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGMTmethylation_methylated1_unmethylated0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cHsp70_low0_high1</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -396,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,6 +411,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -695,26 +699,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:XFD61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="22.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -739,1571 +743,1572 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0"/>
+      <c r="I1" s="4"/>
+      <c r="XFD1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
+      <c r="A2" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="n">
+      <c r="F2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="n">
+      <c r="F3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="F5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0</v>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="F7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0</v>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="n">
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>0</v>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>0</v>
+      <c r="F12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="n">
+      <c r="F13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="n">
+      <c r="F14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="n">
+      <c r="A15" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="n">
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="5" t="n">
+      <c r="A16" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="B16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0</v>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="n">
+      <c r="A17" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>0</v>
+      <c r="F17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="n">
+      <c r="A18" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0</v>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" s="5" t="n">
+      <c r="A19" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="n">
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="n">
+      <c r="A20" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>0</v>
+      <c r="F20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="n">
+      <c r="A21" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="n">
+      <c r="F21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="n">
+      <c r="A22" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="n">
+      <c r="A23" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="n">
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5" t="n">
+      <c r="A24" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>0</v>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5" t="n">
+      <c r="A25" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="n">
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="n">
+      <c r="A26" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="F26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <v>0</v>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5" t="n">
+      <c r="A27" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="B27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="D27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5" t="n">
+      <c r="F27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5" t="n">
+      <c r="A28" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5" t="n">
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5" t="n">
+      <c r="A29" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5" t="n">
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5" t="n">
+      <c r="A30" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>0</v>
+      <c r="F30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5" t="n">
+      <c r="A31" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5" t="n">
+      <c r="F31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B32" s="5" t="n">
+      <c r="A32" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5" t="n">
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B33" s="5" t="n">
+      <c r="A33" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5" t="n">
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="5" t="n">
+      <c r="A34" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="B34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="D34" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5" t="n">
+      <c r="F34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B35" s="5" t="n">
+      <c r="A35" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5" t="n">
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5" t="n">
+      <c r="A36" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="B36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="F36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>0</v>
+      <c r="F36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" s="5" t="n">
+      <c r="A37" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>0</v>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" s="5" t="n">
+      <c r="A38" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="B38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="D38" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5" t="n">
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B39" s="5" t="n">
+      <c r="A39" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="5" t="n">
+      <c r="A40" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5" t="n">
+      <c r="F40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5" t="n">
+      <c r="A41" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5" t="n">
-        <v>0</v>
+      <c r="F41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5" t="n">
+      <c r="A42" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5" t="n">
-        <v>1</v>
+      <c r="F42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B43" s="5" t="n">
+      <c r="A43" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="B43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="F43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5" t="n">
-        <v>0</v>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="5" t="n">
+      <c r="A44" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5" t="n">
+      <c r="F44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" s="5" t="n">
+      <c r="A45" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="5" t="n">
+      <c r="F45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B46" s="5" t="n">
+      <c r="A46" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5" t="n">
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" s="5" t="n">
+      <c r="A47" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5" t="n">
+      <c r="F47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="5" t="n">
+      <c r="A48" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5" t="n">
-        <v>0</v>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" s="5" t="n">
+      <c r="A49" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5" t="n">
-        <v>0</v>
+      <c r="F49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B50" s="5" t="n">
+      <c r="A50" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5" t="n">
-        <v>0</v>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" s="5" t="n">
+      <c r="A51" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5" t="n">
+      <c r="F51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" s="5" t="n">
+      <c r="A52" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5" t="n">
-        <v>1</v>
+      <c r="F52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" s="5" t="n">
+      <c r="A53" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5" t="n">
-        <v>0</v>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" s="5" t="n">
+      <c r="A54" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5" t="n">
-        <v>1</v>
+      <c r="F54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" s="5" t="n">
+      <c r="A55" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5" t="n">
-        <v>0</v>
+      <c r="F55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" s="5" t="n">
+      <c r="A56" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5" t="n">
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" s="5" t="n">
+      <c r="A57" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5" t="n">
+      <c r="F57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" s="5" t="n">
+      <c r="A58" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5" t="n">
-        <v>0</v>
+      <c r="F58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" s="5" t="n">
+      <c r="A59" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5" t="n">
+      <c r="F59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="5" t="n">
+      <c r="A60" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5" t="n">
+      <c r="F60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" s="5" t="n">
+      <c r="A61" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="F61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5" t="n">
+      <c r="F61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H66">
-    <sortState ref="A2:H66">
+  <autoFilter ref="F1:H66">
+    <sortState ref="F2:H66">
       <sortCondition ref="A2:A66" customList=""/>
     </sortState>
   </autoFilter>
